--- a/app/Recursos Marcas/Owl Rose/Plantilla modificada.xlsx
+++ b/app/Recursos Marcas/Owl Rose/Plantilla modificada.xlsx
@@ -121,7 +121,7 @@
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+1+Azul+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+10+Naranja+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+11+Naranja+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+12+Naranja+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+13+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+14+Rosa+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+15+Rosa+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+16+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+2+Azul+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+3+Azul.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+4+Azul.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+5+Morado+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+6+Morado+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+7+Morado+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+8+Morado+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Alegria/Alegria+9+Naranja+.jpg']</t>
   </si>
   <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+1+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+2+Negro+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+3+Negro+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+4+Negro+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+5+Rojo+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+6+Rojo+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+7+Rojo+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+8+Rojo+.jpg']</t>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+1+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+2+Negro+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+3+Negro+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+4+Negro+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+5+Rojo+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+6+Rojo+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+7+Rojo+.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Amor/Amor+8+Rojo+.jpg']</t>
   </si>
   <si>
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Gratitud/Gratitud+1+Dorado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Gratitud/Gratitud+2+Dorado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Gratitud/Gratitud+3+Dorado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Gratitud/Gratitud+4+Dorado.jpg']</t>

--- a/app/Recursos Marcas/Owl Rose/Plantilla modificada.xlsx
+++ b/app/Recursos Marcas/Owl Rose/Plantilla modificada.xlsx
@@ -73,7 +73,7 @@
     <t>Sentimientos</t>
   </si>
   <si>
-    <t xml:space="preserve">libertad </t>
+    <t xml:space="preserve">Libertad </t>
   </si>
   <si>
     <t xml:space="preserve">collar en mostacilla y cadena con dije carita en acero completamente </t>
@@ -130,7 +130,7 @@
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Sentimientos/Sentimientos+1+Dorado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Sentimientos/Sentimientos+2+Dorado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Sentimientos/Sentimientos+3+Dorado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Sentimientos/Sentimientos+4+Dorado.jpg']</t>
   </si>
   <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/libertad/Libertad+1+Dorado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/libertad/Libertad+2+Dorado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/libertad/Libertad+3+Dorado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/libertad/Libertad+4+Dorado.jpg']</t>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Libertad/Libertad+1+Dorado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Libertad/Libertad+2+Dorado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Libertad/Libertad+3+Dorado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Owl+Rose/Libertad/Libertad+4+Dorado.jpg']</t>
   </si>
 </sst>
 </file>
